--- a/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det1_det3  - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det1_det3  - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.29280551904881</v>
+        <v>19.12075701903682</v>
       </c>
       <c r="D2" t="n">
         <v>0.006944391349456487</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02111450030030732</v>
+        <v>0.01982943797740053</v>
       </c>
       <c r="F2" t="n">
-        <v>12.20721607405525</v>
+        <v>10.58302336205827</v>
       </c>
       <c r="G2" t="n">
-        <v>11.73146905629875</v>
+        <v>10.1852961245796</v>
       </c>
       <c r="H2" t="n">
-        <v>12.68561782925161</v>
+        <v>10.98359017836801</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001674586037633094</v>
+        <v>0.002323829143158643</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0008397726734942398</v>
+        <v>0.00119761819857747</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002754211402824361</v>
+        <v>0.003777740334513748</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0108174060802763</v>
+        <v>0.01054190307816003</v>
       </c>
       <c r="M2" t="n">
-        <v>0.010159622522448</v>
+        <v>0.009940987560958962</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01154263817275294</v>
+        <v>0.01117208578707817</v>
       </c>
     </row>
     <row r="3">
@@ -557,40 +557,86 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.05063116607513096</v>
+        <v>0.04981522627320694</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0489062734933936</v>
+        <v>0.04815098319456564</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05076829414557697</v>
+        <v>0.0499839736740351</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0484694900473322</v>
+        <v>0.04772774741515929</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0479583783846048</v>
+        <v>0.04740074944560187</v>
       </c>
       <c r="H3" t="n">
-        <v>0.049374189265523</v>
+        <v>0.0480437614667096</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04646952226357166</v>
+        <v>0.04613160149590845</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04630170321828492</v>
+        <v>0.04581664879518391</v>
       </c>
       <c r="K3" t="n">
-        <v>0.046700531606784</v>
+        <v>0.04643484175287912</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04802510255994305</v>
+        <v>0.04775963952245733</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04790755243525131</v>
+        <v>0.04743270697781536</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04815355226001043</v>
+        <v>0.04807564555405727</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19.17057224531003</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05509537454402212</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.06981341165143562</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10.63075110947343</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10.2326968740252</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11.03163393983472</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0484554306390671</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.04701426699376137</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.05021258208739286</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.05830154260061737</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.05737369453877433</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.05924773134113544</v>
       </c>
     </row>
   </sheetData>
